--- a/app/spreadsheets/277624566023454731schedule.xlsx
+++ b/app/spreadsheets/277624566023454731schedule.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\light\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA123C2-4797-42A2-867E-5CF66D674936}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="38">
   <si>
     <t>Monday</t>
   </si>
@@ -117,9 +111,6 @@
     <t>In the columns where you have class, write "busy" (no quotes)</t>
   </si>
   <si>
-    <t>Fall schedule goes on top, winter goes on bottom</t>
-  </si>
-  <si>
     <t>In order to submit a spreadsheet, use $submit and have this file as an attachment</t>
   </si>
   <si>
@@ -127,13 +118,28 @@
   </si>
   <si>
     <t>busy</t>
+  </si>
+  <si>
+    <t>9:00-9:30 PM</t>
+  </si>
+  <si>
+    <t>9:30-10:00 PM</t>
+  </si>
+  <si>
+    <t>Fall schedule goes on top, winter schedule goes underneath that, summer schedule goes on the bottom.</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,6 +163,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,7 +188,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -185,19 +198,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -534,16 +572,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -559,607 +597,961 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="E25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" t="s">
         <v>0</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>2</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
         <v>3</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
         <v>33</v>
       </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>28</v>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
